--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/word_level_predictions_123.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>2</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>17</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>2</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" t="n">
         <v>19</v>
       </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>20</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>21</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
+      <c r="A102" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7262,364 +7262,364 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>persists,</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
+      <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
+      <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/word_level_predictions_123.xlsx
@@ -3518,262 +3518,262 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5546,210 +5546,210 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>4</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>5</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" t="n">
         <v>4</v>
       </c>
-      <c r="B100" s="2" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" t="n">
         <v>6</v>
       </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I100" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" t="n">
         <v>7</v>
       </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" t="n">
         <v>8</v>
       </c>
-      <c r="E102" s="2" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7262,364 +7262,364 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>5</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>If</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>21</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>5</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>22</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>5</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>issue</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>23</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>5</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>persists,</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>24</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>5</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>25</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>5</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>26</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" t="n">
         <v>5</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" t="n">
         <v>27</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
